--- a/tests_rus.xlsx
+++ b/tests_rus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musae\Desktop\telecom-bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\must_\PycharmProjects\kt-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366B4534-6E9E-423B-931E-99C688FE1B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11634A6-5A22-4AB8-A077-865A7DE85655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="2412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="2414">
   <si>
     <t>№</t>
   </si>
@@ -7277,6 +7277,12 @@
   </si>
   <si>
     <t>ZIGBEE - Спецификация сетевых протоколов верхнего уровня, регламентированных стандартом IEEE 802.15.4. ZigBee и IEEE 802.15.4 описывают беспроводные персональные сети (WPAN). Спецификация ZigBee ориентирована на приложения, требующие гарантированной безопасной передачи данных при относительно небольших скоростях и возможности длительной работы сетевых устройств от автономных источников питания (батарей). [32]</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>VLAN (Virtual Local Area Network, виртуальная локальная сеть) — это функция в роутерах и коммутаторах, позволяющая на одном физическом сетевом интерфейсе создать несколько виртуальных локальных сетей.</t>
   </si>
 </sst>
 </file>
@@ -7574,10 +7580,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C1264"/>
+  <dimension ref="A1:C1265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A1253" workbookViewId="0">
+      <selection activeCell="B1268" sqref="B1268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21492,11 +21498,22 @@
         <v>2411</v>
       </c>
     </row>
+    <row r="1265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1265" s="3">
+        <v>1270</v>
+      </c>
+      <c r="B1265" s="4" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C1265" s="7" t="s">
+        <v>2413</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{14DA95D0-B055-48E0-A4E2-988DAF5DFAD9}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:C1264" xr:uid="{E5EAC3E2-F063-45EA-9F7A-2136F9F0428D}"/>
+      <autoFilter ref="A1:C1264" xr:uid="{603C2E81-B157-4AD0-A838-C91377988608}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
